--- a/wiki/물품구매계획서_마프_8조_김동협_구매계획서_2차.xlsx
+++ b/wiki/물품구매계획서_마프_8조_김동협_구매계획서_2차.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jomingeon/Library/CloudStorage/SynologyDrive-MinssNAS/한양대학교/수업/3학년 1학기/마이크로프로세서응용/AUE3034-project-group8/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881C376-9D1F-DC44-966F-E746865E25F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD3436-217B-A643-A4A8-8210CC30782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21020" yWindow="5760" windowWidth="26880" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="5740" windowWidth="26880" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>마이크로프로세서응용시스템 구매 계획서 (팀당 20만원 제한)</t>
   </si>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>남은돈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OEM] EMG/ECG 일회용 근전도 접착 전극스티커 25개입 [YH-1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=14121224</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -409,6 +417,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,12 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -649,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -668,17 +676,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -698,15 +706,15 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -790,8 +798,8 @@
         <v>6500</v>
       </c>
       <c r="H4" s="8">
-        <f>F4*G4</f>
-        <v>6500</v>
+        <f>F4*G4*1.1</f>
+        <v>7150.0000000000009</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>18</v>
@@ -833,8 +841,8 @@
         <v>1400</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H24" si="0">F5*G5</f>
-        <v>1400</v>
+        <f t="shared" ref="H5:H24" si="0">F5*G5*1.1</f>
+        <v>1540.0000000000002</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>17</v>
@@ -866,14 +874,22 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6300</v>
+      </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6930.0000000000009</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1451,24 +1467,24 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="16">
         <f t="shared" ref="F25:H25" si="1">SUM(F4:F24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" si="1"/>
-        <v>7900</v>
+        <v>14200</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="1"/>
-        <v>7900</v>
+        <v>15620.000000000004</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="1"/>
@@ -1524,8 +1540,12 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="19">
+        <v>165330</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
@@ -1553,10 +1573,11 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
-      <c r="H28" s="25">
-        <v>165330</v>
+      <c r="H28" s="20">
+        <f>SUM(H25,H27)</f>
+        <v>180950</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
@@ -1585,11 +1606,11 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="H29" s="26">
-        <f>SUM(H25,H28)</f>
-        <v>173230</v>
+      <c r="H29" s="20">
+        <f>200000-H28</f>
+        <v>19050</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
@@ -1617,13 +1638,8 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="26">
-        <f>200000-H29</f>
-        <v>26770</v>
-      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
@@ -28719,34 +28735,6 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I2"/>
@@ -28756,6 +28744,7 @@
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{27E02F99-CC83-7F48-B530-6EC4C6A42CF8}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{48A91CDF-9B8A-6346-A131-2408EEAB3656}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{654735BA-9515-3A4D-9C48-AE9D2DD34EE5}"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
